--- a/DOCS/Quality Assurance Plan/TestLog.xlsx
+++ b/DOCS/Quality Assurance Plan/TestLog.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="137">
   <si>
     <t>Test-case ID</t>
   </si>
@@ -31,6 +31,405 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>TC05.03</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Gilana</t>
+  </si>
+  <si>
+    <t>TC05.04</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>System register without any education and training information</t>
+  </si>
+  <si>
+    <t>TC05.07</t>
+  </si>
+  <si>
+    <t>System registers without health problem.</t>
+  </si>
+  <si>
+    <t>TC05.08</t>
+  </si>
+  <si>
+    <t>TC05.09</t>
+  </si>
+  <si>
+    <t>TC05.13</t>
+  </si>
+  <si>
+    <t>Get error message when select remove button</t>
+  </si>
+  <si>
+    <t>TC02.01</t>
+  </si>
+  <si>
+    <t>TC02.04</t>
+  </si>
+  <si>
+    <t>TC02.06</t>
+  </si>
+  <si>
+    <t>TC02.07</t>
+  </si>
+  <si>
+    <t>TC02.10</t>
+  </si>
+  <si>
+    <t>System create incident with 0 in amount</t>
+  </si>
+  <si>
+    <t>TC02.20</t>
+  </si>
+  <si>
+    <t>TC02.25</t>
+  </si>
+  <si>
+    <t>TC02.22</t>
+  </si>
+  <si>
+    <t>TC07.01</t>
+  </si>
+  <si>
+    <t>TC07.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System should show a meesage for empty message </t>
+  </si>
+  <si>
+    <t>TC07.04</t>
+  </si>
+  <si>
+    <t>System should show a meesage for not selected volunteers</t>
+  </si>
+  <si>
+    <t>TC07.05</t>
+  </si>
+  <si>
+    <t>TC03.01</t>
+  </si>
+  <si>
+    <t>TC03.14</t>
+  </si>
+  <si>
+    <t>TC03.15</t>
+  </si>
+  <si>
+    <t>System shows the number more than needed</t>
+  </si>
+  <si>
+    <t>TC03.16</t>
+  </si>
+  <si>
+    <t>TC03.02</t>
+  </si>
+  <si>
+    <t>TC03.03</t>
+  </si>
+  <si>
+    <t>TC03.04</t>
+  </si>
+  <si>
+    <t>TC03.05</t>
+  </si>
+  <si>
+    <t>TC03.06</t>
+  </si>
+  <si>
+    <t>TC03.07</t>
+  </si>
+  <si>
+    <t>TC03.13</t>
+  </si>
+  <si>
+    <t>TC09:01</t>
+  </si>
+  <si>
+    <t>TC09:04</t>
+  </si>
+  <si>
+    <t>TC09:03</t>
+  </si>
+  <si>
+    <t>TC09:02</t>
+  </si>
+  <si>
+    <t>TC08:01</t>
+  </si>
+  <si>
+    <t>TC08:02</t>
+  </si>
+  <si>
+    <t>TC05.01</t>
+  </si>
+  <si>
+    <t>Waseem Soomro</t>
+  </si>
+  <si>
+    <t>TC05.02</t>
+  </si>
+  <si>
+    <t>TC05.05</t>
+  </si>
+  <si>
+    <t>TC05.06</t>
+  </si>
+  <si>
+    <t>Its not showing error message and registration succeded without health exp. Field</t>
+  </si>
+  <si>
+    <t>TC05.10</t>
+  </si>
+  <si>
+    <t>TC05.11</t>
+  </si>
+  <si>
+    <t>Its not showing error message and registration succeded with empty 'First name and last name'</t>
+  </si>
+  <si>
+    <t>TC05.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"There is an unexpected error in the system.
+What message should we show here?
+Show error details" 
+</t>
+  </si>
+  <si>
+    <t>TC02.02</t>
+  </si>
+  <si>
+    <t>TC02.03</t>
+  </si>
+  <si>
+    <t>TC02.05</t>
+  </si>
+  <si>
+    <t>With ".--*?" input in short description, its not showing error</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>accepted registration without occuption</t>
+  </si>
+  <si>
+    <t>accepted registration without educ.&amp; tran.</t>
+  </si>
+  <si>
+    <t>accepted registration without health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accepted the conditions </t>
+  </si>
+  <si>
+    <t>TC06.11</t>
+  </si>
+  <si>
+    <t>18/5/2010</t>
+  </si>
+  <si>
+    <t>Shobha BC</t>
+  </si>
+  <si>
+    <t>it is not waiting for approval</t>
+  </si>
+  <si>
+    <t>TC06.03</t>
+  </si>
+  <si>
+    <t>TC06.04</t>
+  </si>
+  <si>
+    <t>TC06.05</t>
+  </si>
+  <si>
+    <t>TC06.12</t>
+  </si>
+  <si>
+    <t>No option to test this</t>
+  </si>
+  <si>
+    <t>TC06.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its craeting with special charectors and I guess its corrected </t>
+  </si>
+  <si>
+    <t>TC02.12</t>
+  </si>
+  <si>
+    <t>TC02.13</t>
+  </si>
+  <si>
+    <t>TC02.14</t>
+  </si>
+  <si>
+    <t>TC02.18</t>
+  </si>
+  <si>
+    <t>Should not allow the deletion of all the need list</t>
+  </si>
+  <si>
+    <t>TC02.21</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>TC02.08</t>
+  </si>
+  <si>
+    <t>TC02.09</t>
+  </si>
+  <si>
+    <t>TC02.11</t>
+  </si>
+  <si>
+    <t>TC02.15</t>
+  </si>
+  <si>
+    <t>TC02.16</t>
+  </si>
+  <si>
+    <t>TC02.17</t>
+  </si>
+  <si>
+    <t>TC02.19</t>
+  </si>
+  <si>
+    <t>TC02.23</t>
+  </si>
+  <si>
+    <t>TC02.24</t>
+  </si>
+  <si>
+    <t>TC03.08</t>
+  </si>
+  <si>
+    <t>TC03.09</t>
+  </si>
+  <si>
+    <t>TC03.10</t>
+  </si>
+  <si>
+    <t>TC03.11</t>
+  </si>
+  <si>
+    <t>TC03.12</t>
+  </si>
+  <si>
+    <t>TC04.01</t>
+  </si>
+  <si>
+    <t>TC04.02</t>
+  </si>
+  <si>
+    <t>TC04.03</t>
+  </si>
+  <si>
+    <t>TC04.04</t>
+  </si>
+  <si>
+    <t>TC04.05</t>
+  </si>
+  <si>
+    <t>TC04.06</t>
+  </si>
+  <si>
+    <t>TC04.07</t>
+  </si>
+  <si>
+    <t>TC23.01</t>
+  </si>
+  <si>
+    <t>TC23.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC05.10</t>
+  </si>
+  <si>
+    <t>accepting OKword with 3 letters</t>
+  </si>
+  <si>
+    <t>accepted short OKwrord</t>
+  </si>
+  <si>
+    <t>Exec Status Value</t>
+  </si>
+  <si>
+    <t>Shobha BC &amp; Waseem</t>
+  </si>
+  <si>
+    <t>Gilana &amp; Mustafa</t>
+  </si>
+  <si>
+    <t>Total Pass</t>
+  </si>
+  <si>
+    <t>Total Fail</t>
   </si>
 </sst>
 </file>
@@ -74,10 +473,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,22 +779,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,10 +805,2870 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C115" t="s">
+        <v>87</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>91</v>
+      </c>
+      <c r="B130" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>95</v>
+      </c>
+      <c r="B138" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>96</v>
+      </c>
+      <c r="B139" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>32</v>
+      </c>
+      <c r="B141" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B143" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>40</v>
+      </c>
+      <c r="B145" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>41</v>
+      </c>
+      <c r="B146" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>42</v>
+      </c>
+      <c r="B147" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>97</v>
+      </c>
+      <c r="B148" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>98</v>
+      </c>
+      <c r="B149" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>99</v>
+      </c>
+      <c r="B150" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>100</v>
+      </c>
+      <c r="B151" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>43</v>
+      </c>
+      <c r="B153" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>34</v>
+      </c>
+      <c r="B155" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>102</v>
+      </c>
+      <c r="B157" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>103</v>
+      </c>
+      <c r="B158" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>104</v>
+      </c>
+      <c r="B159" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>105</v>
+      </c>
+      <c r="B160" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>106</v>
+      </c>
+      <c r="B161" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>107</v>
+      </c>
+      <c r="B162" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>108</v>
+      </c>
+      <c r="B163" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>109</v>
+      </c>
+      <c r="B164" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>110</v>
+      </c>
+      <c r="B165" s="3">
+        <v>40317</v>
+      </c>
+      <c r="C165" t="s">
+        <v>87</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -413,12 +3679,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1">
+        <f>SUM(Data!D:D)</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <f>COUNT(Data!D:D)-B1</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DOCS/Quality Assurance Plan/TestLog.xlsx
+++ b/DOCS/Quality Assurance Plan/TestLog.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -782,7 +781,7 @@
   <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3711,16 +3710,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>